--- a/Results/Analysis.xlsx
+++ b/Results/Analysis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4220" yWindow="700" windowWidth="25520" windowHeight="19020" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="4220" yWindow="700" windowWidth="27840" windowHeight="19860" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="March 1 - 15" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="42">
   <si>
     <t>SPAM</t>
   </si>
@@ -121,11 +121,44 @@
   <si>
     <t>Total</t>
   </si>
+  <si>
+    <t>Content Type</t>
+  </si>
+  <si>
+    <t>Mixed(3)</t>
+  </si>
+  <si>
+    <t>HTML(1)</t>
+  </si>
+  <si>
+    <t>Text(2)</t>
+  </si>
+  <si>
+    <t>Attachments</t>
+  </si>
+  <si>
+    <t>None(1)</t>
+  </si>
+  <si>
+    <t>Non-text(3)</t>
+  </si>
+  <si>
+    <t>Mixed(4)</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Attachment</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="0.0%"/>
+  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -182,7 +215,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="152">
+  <cellStyleXfs count="286">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -335,14 +368,152 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="152">
+  <cellStyles count="286">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -418,6 +589,73 @@
     <cellStyle name="Followed Hyperlink" xfId="147" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="149" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="151" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="153" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="155" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="157" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="159" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="161" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="163" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="165" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="167" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="169" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="171" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="173" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="175" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="177" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="179" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="181" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="183" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="185" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="187" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="189" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="191" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="193" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="195" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="197" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="199" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="201" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="203" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="205" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="207" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="209" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="211" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="213" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="215" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="217" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="219" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="221" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="223" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="225" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="227" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="229" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="231" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="233" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="235" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="237" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="239" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="241" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="243" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="245" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="247" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="249" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="251" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="253" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="255" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="257" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="259" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="261" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="263" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="265" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="267" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="269" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="271" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="273" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="275" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="277" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="279" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="281" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="283" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="285" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -493,6 +731,73 @@
     <cellStyle name="Hyperlink" xfId="146" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="148" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="150" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="152" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="154" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="156" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="158" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="160" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="162" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="164" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="166" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="168" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="170" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="172" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="174" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="176" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="178" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="180" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="182" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="184" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="186" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="188" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="190" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="192" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="194" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="196" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="198" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="200" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="202" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="204" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="206" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="208" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="210" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="212" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="214" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="216" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="218" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="220" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="222" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="224" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="226" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="228" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="230" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="232" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="234" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="236" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="238" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="240" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="242" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="244" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="246" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="248" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="250" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="252" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="254" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="256" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="258" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="260" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="262" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="264" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="266" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="268" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="270" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="272" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="274" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="276" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="278" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="280" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="282" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="284" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -744,11 +1049,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2139757592"/>
-        <c:axId val="2141090984"/>
+        <c:axId val="2115794312"/>
+        <c:axId val="2115797288"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2139757592"/>
+        <c:axId val="2115794312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -757,7 +1062,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2141090984"/>
+        <c:crossAx val="2115797288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -765,7 +1070,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2141090984"/>
+        <c:axId val="2115797288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0001"/>
@@ -802,7 +1107,995 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2139757592"/>
+        <c:crossAx val="2115794312"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>HAM Attachments</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Charts!$A$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>None(1)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>Charts!$B$24:$F$24</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.501392757660167</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.360687022900763</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.40546218487395</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.453791469194313</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.378704720087816</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Charts!$A$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Text(2)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>Charts!$B$25:$F$25</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Charts!$A$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Non-text(3)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>Charts!$B$26:$F$26</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.0139275766016713</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.00763358778625954</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0147058823529412</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.00473933649289099</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0197585071350165</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Charts!$A$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mixed(4)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>Charts!$B$27:$F$27</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.00557103064066852</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.00286259541984733</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.00118483412322275</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0021953896816685</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2134584840"/>
+        <c:axId val="2134663944"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2134584840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2134663944"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2134663944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2134584840"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>SPAM Attachments</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Charts!$A$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>None(1)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>Charts!$B$19:$F$19</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.476323119777159</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.62118320610687</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.570378151260504</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.53436018957346</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.569703622392975</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Charts!$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Text(2)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>Charts!$B$20:$F$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Charts!$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Non-text(3)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>Charts!$B$21:$F$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.00278551532033426</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.00763358778625954</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.00945378151260504</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.00592417061611374</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0296377607025247</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Charts!$A$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mixed(4)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>Charts!$B$22:$F$22</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2137853176"/>
+        <c:axId val="2137856088"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2137853176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2137856088"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2137856088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2137853176"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>SPAM Type</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Charts!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HTML(1)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>Charts!$B$9:$F$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.144846796657382</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.227099236641221</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.171218487394958</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.195497630331754</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.25576289791438</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Charts!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Text(2)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>Charts!$B$10:$F$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.334261838440111</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.395038167938931</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.403361344537815</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.341232227488152</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.317233809001098</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Charts!$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mixed(3)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>Charts!$B$11:$F$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0066793893129771</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.00525210084033613</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.00355450236966825</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0263446761800219</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2146565896"/>
+        <c:axId val="-2146562808"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2146565896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2146562808"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2146562808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2146565896"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Ham Type</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Charts!$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HTML(1)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>Charts!$B$13:$F$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.0947075208913649</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0477099236641221</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0735294117647059</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0971563981042654</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.11635565312843</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Charts!$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Text(2)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>Charts!$B$14:$F$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.406685236768802</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.316793893129771</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.329831932773109</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.350710900473934</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.264544456641054</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Charts!$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mixed(3)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>Charts!$B$15:$F$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.0194986072423398</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0066793893129771</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0168067226890756</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0118483412322275</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0197585071350165</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2144150728"/>
+        <c:axId val="2135924456"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2144150728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2135924456"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2135924456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2144150728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -836,7 +2129,7 @@
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>548216</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>173566</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -851,6 +2144,126 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>169333</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>601133</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>186266</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>93134</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>25399</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>516467</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>42333</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>160867</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>778933</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>126999</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>804333</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>143932</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1181,17 +2594,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9:G11"/>
+      <selection activeCell="F16" sqref="F16:G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
   </cols>
@@ -1422,6 +2837,184 @@
       </c>
       <c r="G11" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="B14" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="B15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F15" t="s">
+        <v>0</v>
+      </c>
+      <c r="G15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="5">
+        <f>B21/359</f>
+        <v>0.14484679665738162</v>
+      </c>
+      <c r="C16" s="5">
+        <f t="shared" ref="C16:C18" si="1">C21/359</f>
+        <v>9.4707520891364902E-2</v>
+      </c>
+      <c r="E16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="5">
+        <f t="shared" ref="F16:G16" si="2">F21/359</f>
+        <v>0.4763231197771588</v>
+      </c>
+      <c r="G16" s="5">
+        <f t="shared" si="2"/>
+        <v>0.50139275766016711</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="5">
+        <f t="shared" ref="B17:C17" si="3">B22/359</f>
+        <v>0.33426183844011143</v>
+      </c>
+      <c r="C17" s="5">
+        <f t="shared" si="1"/>
+        <v>0.40668523676880225</v>
+      </c>
+      <c r="E17" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17" s="5">
+        <f t="shared" ref="F17:G17" si="4">F22/359</f>
+        <v>0</v>
+      </c>
+      <c r="G17" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="5">
+        <f t="shared" ref="B18:C18" si="5">B23/359</f>
+        <v>0</v>
+      </c>
+      <c r="C18" s="5">
+        <f t="shared" si="1"/>
+        <v>1.9498607242339833E-2</v>
+      </c>
+      <c r="E18" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18" s="5">
+        <f t="shared" ref="F18:G18" si="6">F23/359</f>
+        <v>2.7855153203342618E-3</v>
+      </c>
+      <c r="G18" s="5">
+        <f t="shared" si="6"/>
+        <v>1.3927576601671309E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="E19" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" s="5">
+        <f t="shared" ref="F19:G19" si="7">F24/359</f>
+        <v>0</v>
+      </c>
+      <c r="G19" s="5">
+        <f t="shared" si="7"/>
+        <v>5.5710306406685237E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21">
+        <v>52</v>
+      </c>
+      <c r="C21">
+        <v>34</v>
+      </c>
+      <c r="E21" t="s">
+        <v>37</v>
+      </c>
+      <c r="F21">
+        <v>171</v>
+      </c>
+      <c r="G21">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22">
+        <v>120</v>
+      </c>
+      <c r="C22">
+        <v>146</v>
+      </c>
+      <c r="E22" t="s">
+        <v>35</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>7</v>
+      </c>
+      <c r="E23" t="s">
+        <v>38</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="E24" t="s">
+        <v>39</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1437,10 +3030,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9:H10"/>
+      <selection activeCell="F16" sqref="F16:G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1679,6 +3272,195 @@
         <v>0.65250379362670718</v>
       </c>
     </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="F14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="F15" t="s">
+        <v>0</v>
+      </c>
+      <c r="G15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="4">
+        <f>B21/1048</f>
+        <v>0.22709923664122136</v>
+      </c>
+      <c r="C16" s="4">
+        <f t="shared" ref="C16:C18" si="1">C21/1048</f>
+        <v>4.7709923664122141E-2</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="4">
+        <f t="shared" ref="F16:G16" si="2">F21/1048</f>
+        <v>0.62118320610687028</v>
+      </c>
+      <c r="G16" s="4">
+        <f t="shared" si="2"/>
+        <v>0.36068702290076338</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="4">
+        <f t="shared" ref="B17:C17" si="3">B22/1048</f>
+        <v>0.39503816793893132</v>
+      </c>
+      <c r="C17" s="4">
+        <f t="shared" si="1"/>
+        <v>0.31679389312977096</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17" s="4">
+        <f t="shared" ref="F17:G17" si="4">F22/1048</f>
+        <v>0</v>
+      </c>
+      <c r="G17" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="4">
+        <f t="shared" ref="B18:C18" si="5">B23/1048</f>
+        <v>6.6793893129770991E-3</v>
+      </c>
+      <c r="C18" s="4">
+        <f t="shared" si="1"/>
+        <v>6.6793893129770991E-3</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18" s="4">
+        <f t="shared" ref="F18:G18" si="6">F23/1048</f>
+        <v>7.6335877862595417E-3</v>
+      </c>
+      <c r="G18" s="4">
+        <f t="shared" si="6"/>
+        <v>7.6335877862595417E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="E19" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" s="4">
+        <f t="shared" ref="F19:G19" si="7">F24/1048</f>
+        <v>0</v>
+      </c>
+      <c r="G19" s="4">
+        <f t="shared" si="7"/>
+        <v>2.8625954198473282E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="1">
+        <v>238</v>
+      </c>
+      <c r="C21" s="1">
+        <v>50</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" t="s">
+        <v>37</v>
+      </c>
+      <c r="F21">
+        <v>651</v>
+      </c>
+      <c r="G21" s="1">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="1">
+        <v>414</v>
+      </c>
+      <c r="C22" s="1">
+        <v>332</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" t="s">
+        <v>35</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="1">
+        <v>7</v>
+      </c>
+      <c r="C23" s="1">
+        <v>7</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" t="s">
+        <v>38</v>
+      </c>
+      <c r="F23">
+        <v>8</v>
+      </c>
+      <c r="G23" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="E24" t="s">
+        <v>39</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -1692,10 +3474,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9:G11"/>
+      <selection activeCell="F16" sqref="F16:G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1934,6 +3716,195 @@
         <v>23</v>
       </c>
     </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="F14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="F15" t="s">
+        <v>0</v>
+      </c>
+      <c r="G15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="4">
+        <f>B21/952</f>
+        <v>0.17121848739495799</v>
+      </c>
+      <c r="C16" s="4">
+        <f>C21/952</f>
+        <v>7.3529411764705885E-2</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="4">
+        <f t="shared" ref="F16:G16" si="1">F21/952</f>
+        <v>0.57037815126050417</v>
+      </c>
+      <c r="G16" s="4">
+        <f t="shared" si="1"/>
+        <v>0.40546218487394958</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="4">
+        <f>B22/952</f>
+        <v>0.40336134453781514</v>
+      </c>
+      <c r="C17" s="4">
+        <f>C22/952</f>
+        <v>0.32983193277310924</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17" s="4">
+        <f t="shared" ref="F17:G17" si="2">F22/952</f>
+        <v>0</v>
+      </c>
+      <c r="G17" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="4">
+        <f>B23/952</f>
+        <v>5.2521008403361349E-3</v>
+      </c>
+      <c r="C18" s="4">
+        <f>C23/952</f>
+        <v>1.680672268907563E-2</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18" s="4">
+        <f t="shared" ref="F18:G18" si="3">F23/952</f>
+        <v>9.4537815126050414E-3</v>
+      </c>
+      <c r="G18" s="4">
+        <f t="shared" si="3"/>
+        <v>1.4705882352941176E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="E19" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" s="4">
+        <f t="shared" ref="F19:G19" si="4">F24/952</f>
+        <v>0</v>
+      </c>
+      <c r="G19" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="1">
+        <v>163</v>
+      </c>
+      <c r="C21" s="1">
+        <v>70</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" t="s">
+        <v>37</v>
+      </c>
+      <c r="F21">
+        <v>543</v>
+      </c>
+      <c r="G21" s="1">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="1">
+        <v>384</v>
+      </c>
+      <c r="C22" s="1">
+        <v>314</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" t="s">
+        <v>35</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="1">
+        <v>5</v>
+      </c>
+      <c r="C23" s="1">
+        <v>16</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" t="s">
+        <v>38</v>
+      </c>
+      <c r="F23">
+        <v>9</v>
+      </c>
+      <c r="G23" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="E24" t="s">
+        <v>39</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -1947,10 +3918,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9:I10"/>
+    <sheetView topLeftCell="A2" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2196,6 +4167,195 @@
         <v>0.91008771929824561</v>
       </c>
     </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="F14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="F15" t="s">
+        <v>0</v>
+      </c>
+      <c r="G15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="4">
+        <f>B21/844</f>
+        <v>0.19549763033175355</v>
+      </c>
+      <c r="C16" s="4">
+        <f>C21/844</f>
+        <v>9.7156398104265407E-2</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="4">
+        <f>F21/844</f>
+        <v>0.53436018957345977</v>
+      </c>
+      <c r="G16" s="4">
+        <f>G21/844</f>
+        <v>0.45379146919431279</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="4">
+        <f>B22/844</f>
+        <v>0.34123222748815168</v>
+      </c>
+      <c r="C17" s="4">
+        <f>C22/844</f>
+        <v>0.35071090047393366</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17" s="4">
+        <f>F22/844</f>
+        <v>0</v>
+      </c>
+      <c r="G17" s="4">
+        <f>G22/844</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="4">
+        <f>B23/844</f>
+        <v>3.5545023696682463E-3</v>
+      </c>
+      <c r="C18" s="4">
+        <f>C23/844</f>
+        <v>1.1848341232227487E-2</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18" s="4">
+        <f>F23/844</f>
+        <v>5.9241706161137437E-3</v>
+      </c>
+      <c r="G18" s="4">
+        <f>G23/844</f>
+        <v>4.7393364928909956E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="E19" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" s="4">
+        <f>F24/844</f>
+        <v>0</v>
+      </c>
+      <c r="G19" s="4">
+        <f>G24/844</f>
+        <v>1.1848341232227489E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="1">
+        <v>165</v>
+      </c>
+      <c r="C21" s="1">
+        <v>82</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" t="s">
+        <v>37</v>
+      </c>
+      <c r="F21">
+        <v>451</v>
+      </c>
+      <c r="G21" s="1">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="1">
+        <v>288</v>
+      </c>
+      <c r="C22" s="1">
+        <v>296</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" t="s">
+        <v>35</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="1">
+        <v>3</v>
+      </c>
+      <c r="C23" s="1">
+        <v>10</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" t="s">
+        <v>38</v>
+      </c>
+      <c r="F23">
+        <v>5</v>
+      </c>
+      <c r="G23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="E24" t="s">
+        <v>39</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -2209,10 +4369,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9:H11"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2454,6 +4614,192 @@
         <v>30</v>
       </c>
     </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="F14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="F15" t="s">
+        <v>0</v>
+      </c>
+      <c r="G15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="5">
+        <f>B21/911</f>
+        <v>0.25576289791437978</v>
+      </c>
+      <c r="C16" s="5">
+        <f>C21/911</f>
+        <v>0.1163556531284303</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="5">
+        <f>F21/911</f>
+        <v>0.56970362239297478</v>
+      </c>
+      <c r="G16" s="5">
+        <f>G21/911</f>
+        <v>0.37870472008781558</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="5">
+        <f>B22/911</f>
+        <v>0.31723380900109771</v>
+      </c>
+      <c r="C17" s="5">
+        <f>C22/911</f>
+        <v>0.2645444566410538</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17" s="5">
+        <f>F22/911</f>
+        <v>0</v>
+      </c>
+      <c r="G17" s="5">
+        <f>G22/911</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="5">
+        <f>B23/911</f>
+        <v>2.6344676180021953E-2</v>
+      </c>
+      <c r="C18" s="5">
+        <f>C23/911</f>
+        <v>1.9758507135016465E-2</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18" s="5">
+        <f>F23/911</f>
+        <v>2.9637760702524697E-2</v>
+      </c>
+      <c r="G18" s="5">
+        <f>G23/911</f>
+        <v>1.9758507135016465E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="E19" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" s="5">
+        <f>F24/911</f>
+        <v>0</v>
+      </c>
+      <c r="G19" s="5">
+        <f>G24/911</f>
+        <v>2.1953896816684962E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="1">
+        <v>233</v>
+      </c>
+      <c r="C21" s="1">
+        <v>106</v>
+      </c>
+      <c r="E21" t="s">
+        <v>37</v>
+      </c>
+      <c r="F21">
+        <v>519</v>
+      </c>
+      <c r="G21" s="1">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="1">
+        <v>289</v>
+      </c>
+      <c r="C22" s="1">
+        <v>241</v>
+      </c>
+      <c r="E22" t="s">
+        <v>35</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="1">
+        <v>24</v>
+      </c>
+      <c r="C23" s="1">
+        <v>18</v>
+      </c>
+      <c r="E23" t="s">
+        <v>38</v>
+      </c>
+      <c r="F23">
+        <v>27</v>
+      </c>
+      <c r="G23" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="E24" t="s">
+        <v>39</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -2467,10 +4813,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:F5"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2580,6 +4926,416 @@
       <c r="B5" s="3">
         <f>SUM(B3:F4)/10</f>
         <v>0.83955479174790282</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="B6" s="3"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="6">
+        <f>'March 1 - 15'!B16</f>
+        <v>0.14484679665738162</v>
+      </c>
+      <c r="C9" s="6">
+        <f>'March 16 - 31'!B16</f>
+        <v>0.22709923664122136</v>
+      </c>
+      <c r="D9" s="6">
+        <f>'April 1 - 15'!B16</f>
+        <v>0.17121848739495799</v>
+      </c>
+      <c r="E9" s="6">
+        <f>'April 16 - 30'!B16</f>
+        <v>0.19549763033175355</v>
+      </c>
+      <c r="F9" s="6">
+        <f>'May 1 - 15'!B16</f>
+        <v>0.25576289791437978</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="6">
+        <f>'March 1 - 15'!B17</f>
+        <v>0.33426183844011143</v>
+      </c>
+      <c r="C10" s="6">
+        <f>'March 16 - 31'!B17</f>
+        <v>0.39503816793893132</v>
+      </c>
+      <c r="D10" s="6">
+        <f>'April 1 - 15'!B17</f>
+        <v>0.40336134453781514</v>
+      </c>
+      <c r="E10" s="6">
+        <f>'April 16 - 30'!B17</f>
+        <v>0.34123222748815168</v>
+      </c>
+      <c r="F10" s="6">
+        <f>'May 1 - 15'!B17</f>
+        <v>0.31723380900109771</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="6">
+        <f>'March 1 - 15'!B18</f>
+        <v>0</v>
+      </c>
+      <c r="C11" s="6">
+        <f>'March 16 - 31'!B18</f>
+        <v>6.6793893129770991E-3</v>
+      </c>
+      <c r="D11" s="6">
+        <f>'April 1 - 15'!B18</f>
+        <v>5.2521008403361349E-3</v>
+      </c>
+      <c r="E11" s="6">
+        <f>'April 16 - 30'!B18</f>
+        <v>3.5545023696682463E-3</v>
+      </c>
+      <c r="F11" s="6">
+        <f>'May 1 - 15'!B18</f>
+        <v>2.6344676180021953E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="7"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="6">
+        <f>'March 1 - 15'!C16</f>
+        <v>9.4707520891364902E-2</v>
+      </c>
+      <c r="C13" s="6">
+        <f>'March 16 - 31'!C16</f>
+        <v>4.7709923664122141E-2</v>
+      </c>
+      <c r="D13" s="6">
+        <f>'April 1 - 15'!C16</f>
+        <v>7.3529411764705885E-2</v>
+      </c>
+      <c r="E13" s="6">
+        <f>'April 16 - 30'!C16</f>
+        <v>9.7156398104265407E-2</v>
+      </c>
+      <c r="F13" s="6">
+        <f>'May 1 - 15'!C16</f>
+        <v>0.1163556531284303</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="6">
+        <f>'March 1 - 15'!C17</f>
+        <v>0.40668523676880225</v>
+      </c>
+      <c r="C14" s="6">
+        <f>'March 16 - 31'!C17</f>
+        <v>0.31679389312977096</v>
+      </c>
+      <c r="D14" s="6">
+        <f>'April 1 - 15'!C17</f>
+        <v>0.32983193277310924</v>
+      </c>
+      <c r="E14" s="6">
+        <f>'April 16 - 30'!C17</f>
+        <v>0.35071090047393366</v>
+      </c>
+      <c r="F14" s="6">
+        <f>'May 1 - 15'!C17</f>
+        <v>0.2645444566410538</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="6">
+        <f>'March 1 - 15'!C18</f>
+        <v>1.9498607242339833E-2</v>
+      </c>
+      <c r="C15" s="6">
+        <f>'March 16 - 31'!C18</f>
+        <v>6.6793893129770991E-3</v>
+      </c>
+      <c r="D15" s="6">
+        <f>'April 1 - 15'!C18</f>
+        <v>1.680672268907563E-2</v>
+      </c>
+      <c r="E15" s="6">
+        <f>'April 16 - 30'!C18</f>
+        <v>1.1848341232227487E-2</v>
+      </c>
+      <c r="F15" s="6">
+        <f>'May 1 - 15'!C18</f>
+        <v>1.9758507135016465E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="7"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="7"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="7"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="6">
+        <f>'March 1 - 15'!F16</f>
+        <v>0.4763231197771588</v>
+      </c>
+      <c r="C19" s="6">
+        <f>'March 16 - 31'!F16</f>
+        <v>0.62118320610687028</v>
+      </c>
+      <c r="D19" s="6">
+        <f>'April 1 - 15'!F16</f>
+        <v>0.57037815126050417</v>
+      </c>
+      <c r="E19" s="6">
+        <f>'April 16 - 30'!F16</f>
+        <v>0.53436018957345977</v>
+      </c>
+      <c r="F19" s="6">
+        <f>'May 1 - 15'!F16</f>
+        <v>0.56970362239297478</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="6">
+        <f>'March 1 - 15'!F17</f>
+        <v>0</v>
+      </c>
+      <c r="C20" s="6">
+        <f>'March 16 - 31'!F17</f>
+        <v>0</v>
+      </c>
+      <c r="D20" s="6">
+        <f>'April 1 - 15'!F17</f>
+        <v>0</v>
+      </c>
+      <c r="E20" s="6">
+        <f>'April 16 - 30'!F17</f>
+        <v>0</v>
+      </c>
+      <c r="F20" s="6">
+        <f>'May 1 - 15'!F17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="6">
+        <f>'March 1 - 15'!F18</f>
+        <v>2.7855153203342618E-3</v>
+      </c>
+      <c r="C21" s="6">
+        <f>'March 16 - 31'!F18</f>
+        <v>7.6335877862595417E-3</v>
+      </c>
+      <c r="D21" s="6">
+        <f>'April 1 - 15'!F18</f>
+        <v>9.4537815126050414E-3</v>
+      </c>
+      <c r="E21" s="6">
+        <f>'April 16 - 30'!F18</f>
+        <v>5.9241706161137437E-3</v>
+      </c>
+      <c r="F21" s="6">
+        <f>'May 1 - 15'!F18</f>
+        <v>2.9637760702524697E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="6">
+        <f>'March 1 - 15'!F19</f>
+        <v>0</v>
+      </c>
+      <c r="C22" s="6">
+        <f>'March 16 - 31'!F19</f>
+        <v>0</v>
+      </c>
+      <c r="D22" s="6">
+        <f>'April 1 - 15'!F19</f>
+        <v>0</v>
+      </c>
+      <c r="E22" s="6">
+        <f>'April 16 - 30'!F19</f>
+        <v>0</v>
+      </c>
+      <c r="F22" s="6">
+        <f>'May 1 - 15'!F19</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="6">
+        <f>'March 1 - 15'!G16</f>
+        <v>0.50139275766016711</v>
+      </c>
+      <c r="C24" s="6">
+        <f>'March 16 - 31'!G16</f>
+        <v>0.36068702290076338</v>
+      </c>
+      <c r="D24" s="6">
+        <f>'April 1 - 15'!G16</f>
+        <v>0.40546218487394958</v>
+      </c>
+      <c r="E24" s="6">
+        <f>'April 16 - 30'!G16</f>
+        <v>0.45379146919431279</v>
+      </c>
+      <c r="F24" s="6">
+        <f>'May 1 - 15'!G16</f>
+        <v>0.37870472008781558</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="6">
+        <f>'March 1 - 15'!G17</f>
+        <v>0</v>
+      </c>
+      <c r="C25" s="6">
+        <f>'March 16 - 31'!G17</f>
+        <v>0</v>
+      </c>
+      <c r="D25" s="6">
+        <f>'April 1 - 15'!G17</f>
+        <v>0</v>
+      </c>
+      <c r="E25" s="6">
+        <f>'April 16 - 30'!G17</f>
+        <v>0</v>
+      </c>
+      <c r="F25" s="6">
+        <f>'May 1 - 15'!G17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="6">
+        <f>'March 1 - 15'!G18</f>
+        <v>1.3927576601671309E-2</v>
+      </c>
+      <c r="C26" s="6">
+        <f>'March 16 - 31'!G18</f>
+        <v>7.6335877862595417E-3</v>
+      </c>
+      <c r="D26" s="6">
+        <f>'April 1 - 15'!G18</f>
+        <v>1.4705882352941176E-2</v>
+      </c>
+      <c r="E26" s="6">
+        <f>'April 16 - 30'!G18</f>
+        <v>4.7393364928909956E-3</v>
+      </c>
+      <c r="F26" s="6">
+        <f>'May 1 - 15'!G18</f>
+        <v>1.9758507135016465E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" s="6">
+        <f>'March 1 - 15'!G19</f>
+        <v>5.5710306406685237E-3</v>
+      </c>
+      <c r="C27" s="6">
+        <f>'March 16 - 31'!G19</f>
+        <v>2.8625954198473282E-3</v>
+      </c>
+      <c r="D27" s="6">
+        <f>'April 1 - 15'!G19</f>
+        <v>0</v>
+      </c>
+      <c r="E27" s="6">
+        <f>'April 16 - 30'!G19</f>
+        <v>1.1848341232227489E-3</v>
+      </c>
+      <c r="F27" s="6">
+        <f>'May 1 - 15'!G19</f>
+        <v>2.1953896816684962E-3</v>
       </c>
     </row>
   </sheetData>
